--- a/Planning/LLGRAMATIKA.xlsx
+++ b/Planning/LLGRAMATIKA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="89">
   <si>
     <t>(</t>
   </si>
@@ -2288,9 +2288,6 @@
     <t>Další token</t>
   </si>
   <si>
-    <t>?????</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -2334,13 +2331,609 @@
   </si>
   <si>
     <t>E   -&gt;   i</t>
+  </si>
+  <si>
+    <t>LL GRAMATIKA</t>
+  </si>
+  <si>
+    <t>&lt;PRVKY_TŘÍDY&gt;     -&gt;   Ɛ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ZÁV_STŘED_ROV&gt;     -&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXPRESSION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;PRVKY_TŘÍDY&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;PRVKY_TŘÍDY&gt;     -&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;TYP&gt; </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;TYP&gt;     -&gt;    </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ZÁV_STŘED_ROV&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;TYP&gt;     -&gt;    </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DOUBLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ZÁV_STŘED_ROV&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;TYP&gt;     -&gt;    </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STRING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;ZÁV_STŘED_ROV&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;PARAMETR&gt;     -&gt;  Ɛ</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ITEM&gt;     -&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXPRESSION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;VE_FUNKCI&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ITEM&gt;     -&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;PARAMETR_VOLÁNÍ&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )  ;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;VE_FUNKCI&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;STŘ_ROVN&gt;     -&gt;   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;VE_FUNKCI&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;TYP&gt;     -&gt;    </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VOID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;PARAMETR&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;VE_FUNKCI&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;PRVKY_TŘÍDY&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2398,8 +2991,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2421,6 +3030,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,7 +3084,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2502,10 +3123,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2514,17 +3147,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2808,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,6 +3451,7 @@
     <col min="2" max="2" width="3.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" customWidth="1"/>
     <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="8.140625" customWidth="1"/>
     <col min="19" max="19" width="5.28515625" customWidth="1"/>
@@ -2832,24 +3466,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="3:53" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2865,10 +3499,10 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
         <v>48</v>
@@ -2901,10 +3535,10 @@
         <v>57</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R3" s="10" t="s">
         <v>0</v>
@@ -2954,8 +3588,8 @@
       <c r="BA3" s="4"/>
     </row>
     <row r="4" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="10" t="s">
         <v>48</v>
       </c>
@@ -3043,8 +3677,8 @@
       <c r="BA4" s="4"/>
     </row>
     <row r="5" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="10" t="s">
         <v>49</v>
       </c>
@@ -3130,8 +3764,8 @@
       <c r="BA5" s="4"/>
     </row>
     <row r="6" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="10" t="s">
         <v>50</v>
       </c>
@@ -3215,8 +3849,8 @@
       <c r="BA6" s="4"/>
     </row>
     <row r="7" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="10" t="s">
         <v>51</v>
       </c>
@@ -3306,8 +3940,8 @@
       <c r="BA7" s="4"/>
     </row>
     <row r="8" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="10" t="s">
         <v>52</v>
       </c>
@@ -3323,24 +3957,12 @@
       <c r="I8" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
       <c r="P8" s="12" t="s">
         <v>52</v>
       </c>
@@ -3411,24 +4033,12 @@
       <c r="I9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="12" t="s">
         <v>52</v>
       </c>
@@ -3499,24 +4109,12 @@
       <c r="I10" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
       <c r="P10" s="12" t="s">
         <v>52</v>
       </c>
@@ -3583,24 +4181,12 @@
       <c r="I11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
       <c r="P11" s="13" t="s">
         <v>52</v>
       </c>
@@ -3636,8 +4222,8 @@
       <c r="AH11" s="1"/>
     </row>
     <row r="12" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C12" s="21" t="s">
-        <v>64</v>
+      <c r="C12" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="11" t="s">
@@ -3655,24 +4241,12 @@
       <c r="I12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="13" t="s">
         <v>52</v>
       </c>
@@ -3710,8 +4284,8 @@
       <c r="AH12" s="1"/>
     </row>
     <row r="13" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C13" s="21" t="s">
-        <v>65</v>
+      <c r="C13" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
@@ -3729,24 +4303,12 @@
       <c r="I13" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="13" t="s">
         <v>52</v>
       </c>
@@ -3778,30 +4340,30 @@
       <c r="AH13" s="1"/>
     </row>
     <row r="14" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C14" s="21" t="s">
-        <v>66</v>
+      <c r="C14" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
       <c r="R14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -3822,12 +4384,12 @@
       <c r="AH14" s="1"/>
     </row>
     <row r="15" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
-        <v>67</v>
+      <c r="C15" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>53</v>
@@ -3859,9 +4421,9 @@
       <c r="O15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
       <c r="S15" s="13" t="s">
         <v>53</v>
       </c>
@@ -3888,8 +4450,8 @@
       <c r="AH15" s="1"/>
     </row>
     <row r="16" spans="3:53" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
-        <v>68</v>
+      <c r="C16" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
@@ -3937,7 +4499,7 @@
       <c r="S16" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="T16" s="19"/>
+      <c r="T16" s="14"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -3958,8 +4520,8 @@
       <c r="AH16" s="1"/>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C17" s="21" t="s">
-        <v>69</v>
+      <c r="C17" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="10" t="s">
@@ -3995,18 +4557,18 @@
       <c r="O17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="19"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="R17" s="19"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="13" t="s">
         <v>53</v>
       </c>
       <c r="T17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="U17" s="20"/>
+      <c r="U17" s="15"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -4027,8 +4589,8 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C18" s="21" t="s">
-        <v>70</v>
+      <c r="C18" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
@@ -4073,9 +4635,9 @@
       <c r="R18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="S18" s="19"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="13" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -4095,8 +4657,8 @@
       <c r="AF18" s="1"/>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
-        <v>71</v>
+      <c r="C19" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -4129,8 +4691,8 @@
       <c r="AF19" s="1"/>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
-        <v>72</v>
+      <c r="C20" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -4167,8 +4729,8 @@
       <c r="AF20" s="1"/>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
-        <v>73</v>
+      <c r="C21" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -4205,8 +4767,8 @@
       <c r="AF21" s="1"/>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C22" s="21" t="s">
-        <v>74</v>
+      <c r="C22" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -4243,8 +4805,8 @@
       <c r="AF22" s="1"/>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
-        <v>75</v>
+      <c r="C23" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -4281,8 +4843,8 @@
       <c r="AF23" s="1"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C24" s="21" t="s">
-        <v>76</v>
+      <c r="C24" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -4320,14 +4882,16 @@
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="E25" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -4355,14 +4919,14 @@
     </row>
     <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -4390,14 +4954,14 @@
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -4425,14 +4989,14 @@
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -4493,18 +5057,22 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
+      <c r="E30" s="25">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
@@ -4528,18 +5096,22 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="E31" s="25">
+        <v>2</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4559,18 +5131,22 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="E32" s="25">
+        <v>3</v>
+      </c>
+      <c r="F32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
@@ -4594,18 +5170,22 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="E33" s="25">
+        <v>4</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4629,18 +5209,22 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
+      <c r="E34" s="25">
+        <v>5</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -4660,18 +5244,22 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
+      <c r="E35" s="25">
+        <v>6</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4695,18 +5283,22 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="E36" s="25">
+        <v>7</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
@@ -4730,18 +5322,22 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="E37" s="25">
+        <v>8</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -4761,18 +5357,22 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
+      <c r="E38" s="25">
+        <v>9</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
@@ -4796,18 +5396,22 @@
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
+      <c r="E39" s="25">
+        <v>10</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4831,18 +5435,22 @@
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
+      <c r="E40" s="25">
+        <v>11</v>
+      </c>
+      <c r="F40" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4862,18 +5470,22 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="E41" s="25">
+        <v>12</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
@@ -4897,18 +5509,22 @@
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="E42" s="25">
+        <v>13</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
@@ -4932,18 +5548,22 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="E43" s="25">
+        <v>14</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -4967,18 +5587,22 @@
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
+      <c r="E44" s="25">
+        <v>15</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
@@ -5002,18 +5626,22 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="E45" s="25">
+        <v>16</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="23"/>
+      <c r="P45" s="23"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -5037,18 +5665,22 @@
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
+      <c r="E46" s="25">
+        <v>17</v>
+      </c>
+      <c r="F46" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
@@ -5072,18 +5704,22 @@
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
+      <c r="E47" s="25">
+        <v>18</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -5107,18 +5743,22 @@
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="E48" s="25">
+        <v>19</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -5138,18 +5778,22 @@
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="E49" s="25">
+        <v>20</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="23"/>
+      <c r="P49" s="23"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -5169,18 +5813,22 @@
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
+      <c r="E50" s="25">
+        <v>21</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
@@ -5204,18 +5852,22 @@
       <c r="B51" s="1"/>
       <c r="C51" s="2"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
+      <c r="E51" s="25">
+        <v>22</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -5239,8 +5891,8 @@
       <c r="B52" s="1"/>
       <c r="C52" s="2"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -5274,8 +5926,8 @@
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -5309,8 +5961,8 @@
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -5344,8 +5996,8 @@
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -5379,8 +6031,12 @@
       <c r="B56" s="1"/>
       <c r="C56" s="2"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="E56" s="3">
+        <v>24</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -5410,8 +6066,12 @@
       <c r="B57" s="1"/>
       <c r="C57" s="2"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="E57" s="3">
+        <v>25</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -5441,8 +6101,8 @@
       <c r="B58" s="1"/>
       <c r="C58" s="2"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -5472,8 +6132,12 @@
       <c r="B59" s="1"/>
       <c r="C59" s="2"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="E59" s="3">
+        <v>26</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
@@ -5503,8 +6167,12 @@
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="E60" s="3">
+        <v>27</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -5533,8 +6201,8 @@
     <row r="61" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -5563,8 +6231,12 @@
     <row r="62" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="E62" s="3">
+        <v>26</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -5593,8 +6265,12 @@
     <row r="63" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="E63" s="3">
+        <v>27</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -5623,8 +6299,12 @@
     <row r="64" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="E64" s="3">
+        <v>28</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -5653,8 +6333,12 @@
     <row r="65" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+      <c r="E65" s="3">
+        <v>29</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -5683,8 +6367,12 @@
     <row r="66" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="E66" s="3">
+        <v>30</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -5713,8 +6401,12 @@
     <row r="67" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="E67" s="3">
+        <v>31</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -5743,8 +6435,12 @@
     <row r="68" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="E68" s="3">
+        <v>32</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -5773,15 +6469,8 @@
     <row r="69" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="5"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -5803,18 +6492,8 @@
     <row r="70" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="5"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
@@ -5833,18 +6512,12 @@
     <row r="71" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
+      <c r="E71" s="3">
+        <v>33</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -5863,18 +6536,12 @@
     <row r="72" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
+      <c r="E72" s="3">
+        <v>34</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -5893,18 +6560,12 @@
     <row r="73" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
+      <c r="E73" s="3">
+        <v>35</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -5923,18 +6584,12 @@
     <row r="74" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
+      <c r="E74" s="3">
+        <v>36</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
       <c r="W74" s="3"/>
@@ -5943,24 +6598,24 @@
     <row r="75" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
+      <c r="E75" s="3">
+        <v>37</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="R75" s="1"/>
       <c r="W75" s="3"/>
       <c r="X75" s="5"/>
     </row>
     <row r="76" spans="3:30" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
+      <c r="E76" s="3">
+        <v>38</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="W76" s="3"/>
       <c r="X76" s="5"/>
     </row>
@@ -6047,9 +6702,32 @@
       <c r="X98" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="25">
+    <mergeCell ref="F51:P51"/>
+    <mergeCell ref="F48:P48"/>
+    <mergeCell ref="F49:P49"/>
+    <mergeCell ref="F44:P44"/>
+    <mergeCell ref="F45:P45"/>
+    <mergeCell ref="F46:P46"/>
+    <mergeCell ref="F47:P47"/>
+    <mergeCell ref="F50:P50"/>
+    <mergeCell ref="F36:P36"/>
+    <mergeCell ref="F37:P37"/>
+    <mergeCell ref="F38:P38"/>
+    <mergeCell ref="F39:P39"/>
+    <mergeCell ref="F40:P40"/>
+    <mergeCell ref="F41:P41"/>
+    <mergeCell ref="F42:P42"/>
+    <mergeCell ref="F43:P43"/>
+    <mergeCell ref="F33:P33"/>
+    <mergeCell ref="F34:P34"/>
+    <mergeCell ref="F35:P35"/>
     <mergeCell ref="F1:K2"/>
     <mergeCell ref="C3:D8"/>
+    <mergeCell ref="E25:L28"/>
+    <mergeCell ref="F30:P30"/>
+    <mergeCell ref="F31:P31"/>
+    <mergeCell ref="F32:P32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
